--- a/data/proveedor/drimel/nuevos/drimel_only.xlsx
+++ b/data/proveedor/drimel/nuevos/drimel_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,41 +501,41 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC MES XXGx52</t>
+          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8769</t>
+          <t>8774</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7500435189668</t>
+          <t>7791274198359</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4953</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
+          <t>BABYSEC RECIEN NACIDOx20</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8774</t>
+          <t>9453</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7791274198359</t>
+          <t>7502247331549</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>462</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="6">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2409</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="8">
@@ -601,341 +601,301 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Gx72</t>
+          <t>PAMPERS BABYSAN MES XXGx54</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>12412</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7500435228534</t>
+          <t>7500435228565</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3904</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XXGx54</t>
+          <t>PAMPERS BabyDry MES Mx72</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>12414</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7500435228565</t>
+          <t>7500435228701</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3904</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Mx72</t>
+          <t>PAMPERS BabyDry MES Gx72</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7500435228701</t>
+          <t>7500435228695</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6293</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Gx72</t>
+          <t>PAMPERS BabyDry MES XGx58</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>12415</t>
+          <t>12416</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7500435228695</t>
+          <t>7500435228718</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6293</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XGx58</t>
+          <t>PAMPERS BabyDry JUMBO XGx96</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>12416</t>
+          <t>12419</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7500435228718</t>
+          <t>7500435228671</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6293</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XGx96</t>
+          <t>PAMPERS BabyDry JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7500435228671</t>
+          <t>7500435228688</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>9325</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XXGx88</t>
+          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>12518</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7500435228688</t>
+          <t>7500435189149</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9325</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
+          <t>PAMPERS BABYSAN MES XGx58</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>12518</t>
+          <t>13016</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7500435189149</t>
+          <t>7500435228558</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6712</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XGx58</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>13016</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7500435228558</t>
+          <t>77946260119</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3904</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN Px52</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>14542</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7500435230506</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2750</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS BabyDry JUMBO Gx110</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>16277</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77946260119</t>
+          <t>7500435228664</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2182</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>15777</t>
+          <t>16284</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>7500435222433</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6638</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM HIPER XXGx34</t>
+          <t>PAMPERS SUPER HYP XGx36</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>15779</t>
+          <t>16289</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7500435182881</t>
+          <t>7500435205344</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3804</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO Gx110</t>
+          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>16277</t>
+          <t>16293</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7500435228664</t>
+          <t>7790064005525</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>9325</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>16284</t>
+          <t>16294</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7500435222433</t>
+          <t>7790064005501</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6638</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS SUPER HYP XGx36</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>16289</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>7500435205344</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS SUPER HYP XXGx34</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>1629</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>7500435205351</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>2447</v>
+        <v>3865</v>
       </c>
     </row>
   </sheetData>

--- a/data/proveedor/drimel/nuevos/drimel_only.xlsx
+++ b/data/proveedor/drimel/nuevos/drimel_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2944</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="7">
@@ -741,161 +741,221 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XGx58</t>
+          <t>PAMPERS PREMIUM XTR RN x36</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>13016</t>
+          <t>12972</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7500435228558</t>
+          <t>7500435132954</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4100</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS BABYSAN MES XGx58</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>13016</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77946260119</t>
+          <t>7500435228558</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2291</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>15777</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>77946260119</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6970</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO Gx110</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>16277</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7500435228664</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>9791</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+          <t>PAMPERS BabyDry JUMBO Gx110</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>16284</t>
+          <t>16277</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7500435222433</t>
+          <t>7500435228664</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6970</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER HYP XGx36</t>
+          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>16289</t>
+          <t>16284</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7500435205344</t>
+          <t>7500435222433</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2570</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
+          <t>PAMPERS SUPER HYP XGx36</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>16293</t>
+          <t>16289</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7790064005525</t>
+          <t>7500435205344</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>3865</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>16294</t>
+          <t>16293</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7790064005501</t>
+          <t>7790064005525</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
         <v>3865</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>16294</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>7790064005501</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDry MES XXGx54</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>16583</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7500435228725</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC TOALLAS PREMIUMx50</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>16594</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7806500730514</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/data/proveedor/drimel/nuevos/drimel_only.xlsx
+++ b/data/proveedor/drimel/nuevos/drimel_only.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>508</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3018</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>494</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1477</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="6">
@@ -555,47 +555,47 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3040</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC XXGx24</t>
+          <t>ST VALLEY HISOPOS x100</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>12065</t>
+          <t>12112</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7500435178327</t>
+          <t>7791274200861</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2444</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ST VALLEY HISOPOS x100</t>
+          <t>PAMPERS BABYSAN MES Gx72</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>12112</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7791274200861</t>
+          <t>7500435228534</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>294</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="9">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4100</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="10">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6608</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="11">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6608</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="12">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6608</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>9791</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="14">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>9791</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="15">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7048</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="16">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1950</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="17">
@@ -775,187 +775,467 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4100</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS BABYSAN Px52</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>14542</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>77946260119</t>
+          <t>7500435230506</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2291</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>PAMPERS PREMIUM Px36</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>15777</t>
+          <t>14556</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>7500435183406</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6970</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO Gx110</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>16277</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7500435228664</t>
+          <t>77946260119</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>9791</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+          <t>PAMPERS BabyDry Px56</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>16284</t>
+          <t>15764</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7500435222433</t>
+          <t>7500435228756</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6970</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER HYP XGx36</t>
+          <t>PAMPERS PREMIUM HIPER XXGx34</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>16289</t>
+          <t>15779</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7500435205344</t>
+          <t>7500435182881</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2570</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
+          <t>PAMPERS BabyDry JUMBO Gx110</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>16293</t>
+          <t>16277</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7790064005525</t>
+          <t>7500435228664</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3865</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+          <t>PAMPERS SUPER HYP XGx36</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>16294</t>
+          <t>16289</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7790064005501</t>
+          <t>7500435205344</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3865</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XXGx54</t>
+          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>16583</t>
+          <t>16293</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7500435228725</t>
+          <t>7790064005525</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6608</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
+          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>16294</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7790064005501</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDry MES XXGx54</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>16583</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>7500435228725</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
           <t>BABYSEC TOALLAS PREMIUMx50</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>16594</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>7806500730514</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>629</v>
+      <c r="D28" s="2" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDRY RN x36</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>16683</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>7500435230513</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES TOALLAS PROTECCION PLUSx48</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>16702</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>7794626013225</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDry HIPER Mx52</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>17209</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>7500435228749</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDry HIPER Gx44</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>17214</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>7500435228732</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDry HIPER XGx36</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>17219</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7500435228763</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BabyDry HIPER XXGx34</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>17221</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>750043522877</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BABYSAN MES Mx72</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>17236</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>750043522851</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>17239</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>7500435155953</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>17244</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>7500435222433</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>SELEC.EST.HIPER XGx36</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>17325</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>SELEC.EST.SUPER Gx60</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>17329</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>8281</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>SELEC.EST.HIPER JUNIORx30</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>8138</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2178</v>
       </c>
     </row>
   </sheetData>

--- a/data/proveedor/drimel/nuevos/drimel_only.xlsx
+++ b/data/proveedor/drimel/nuevos/drimel_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -461,17 +461,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC REG. XGx8</t>
+          <t>HUGGIES PROTECT REG. Px8</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>6795</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>7794626009181</t>
+          <t>7794626010446</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -481,761 +481,1121 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS CS HIPER XXGx32</t>
+          <t>HUGGIES PROTECT REG. Mx8</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>8748</t>
+          <t>6796</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>7500435207577</t>
+          <t>7794626999758</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3470</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
+          <t>HUGGIES PROTECT REG. XGx8</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8774</t>
+          <t>6798</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7791274198359</t>
+          <t>7794626999772</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>598</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC RECIEN NACIDOx20</t>
+          <t>HUGGIES PROTECT REG. XXGx8</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>9453</t>
+          <t>6799</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7502247331549</t>
+          <t>7794626999789</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC SUPER PREMIUM Gx44</t>
+          <t>ESTRELLA PAÑAL REGULAR Mx9</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>9456</t>
+          <t>685</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7730219049028</t>
+          <t>779006400403</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3496</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ST VALLEY HISOPOS x100</t>
+          <t>HUGGIES CLASSIC REG. Px8</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>12112</t>
+          <t>6857</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7791274200861</t>
+          <t>7794626996917</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>378</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Gx72</t>
+          <t>HUGGIES CLASSIC REG. Gx8</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>6859</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7500435228534</t>
+          <t>77946269969</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4714</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XXGx54</t>
+          <t>HUGGIES CLASSIC REG. XGx8</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>686</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7500435228565</t>
+          <t>7794626009181</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4714</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Mx72</t>
+          <t>PAMPERS PANTS CS HIPER XXGx32</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>8748</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7500435228701</t>
+          <t>7500435207577</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7599</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Gx72</t>
+          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>12415</t>
+          <t>8774</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7500435228695</t>
+          <t>7791274198359</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7599</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XGx58</t>
+          <t>BABYSEC RECIEN NACIDOx20</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>12416</t>
+          <t>9453</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7500435228718</t>
+          <t>7502247331549</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7599</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XGx96</t>
+          <t>BABYSEC SUPER PREMIUM Gx44</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>9456</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7500435228671</t>
+          <t>7730219049028</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>11260</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XXGx88</t>
+          <t>ST VALLEY HISOPOS x100</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>12112</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7500435228688</t>
+          <t>7791274200861</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>11260</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
+          <t>PAMPERS BABYSAN MES Gx72</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>12518</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7500435189149</t>
+          <t>7500435228534</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8105</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR RN x36</t>
+          <t>PAMPERS BABYSAN MES XXGx54</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>12972</t>
+          <t>12412</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7500435132954</t>
+          <t>7500435228565</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2269</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XGx58</t>
+          <t>PAMPERS BabyDry MES Mx72</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>13016</t>
+          <t>12414</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7500435228558</t>
+          <t>7500435228701</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4714</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN Px52</t>
+          <t>PAMPERS BabyDry MES Gx72</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>14542</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7500435230506</t>
+          <t>7500435228695</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3320</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM Px36</t>
+          <t>PAMPERS BabyDry MES XGx58</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>14556</t>
+          <t>12416</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7500435183406</t>
+          <t>7500435228718</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2269</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS BabyDry JUMBO XGx96</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>12419</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>77946260119</t>
+          <t>7500435228671</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3175</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry Px56</t>
+          <t>PAMPERS BabyDry JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>15764</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7500435228756</t>
+          <t>7500435228688</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>3814</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM HIPER XXGx34</t>
+          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>15779</t>
+          <t>12518</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7500435182881</t>
+          <t>7500435189149</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>4594</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO Gx110</t>
+          <t>PAMPERS BABYSAN Px52</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>16277</t>
+          <t>14542</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7500435228664</t>
+          <t>7500435230506</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>11260</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER HYP XGx36</t>
+          <t>PAMPERS PREMIUM Px36</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>16289</t>
+          <t>14556</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7500435205344</t>
+          <t>7500435183406</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2955</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>16293</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7790064005525</t>
+          <t>77946260119</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>4675</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+          <t>PAMPERS BabyDry Px56</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>16294</t>
+          <t>15764</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7790064005501</t>
+          <t>7500435228756</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>4675</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XXGx54</t>
+          <t>PAMPERS PREMIUM HIPER XXGx34</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>16583</t>
+          <t>15779</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7500435228725</t>
+          <t>7500435182881</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>7599</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC TOALLAS PREMIUMx50</t>
+          <t>PAMPERS BabyDry JUMBO Gx110</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>16594</t>
+          <t>16277</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>7806500730514</t>
+          <t>7500435228664</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>770</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDRY RN x36</t>
+          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>16683</t>
+          <t>16293</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7500435230513</t>
+          <t>7790064005525</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2667</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLAS PROTECCION PLUSx48</t>
+          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>16702</t>
+          <t>16294</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7794626013225</t>
+          <t>7790064005501</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>670</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER Mx52</t>
+          <t>PAMPERS BabyDry MES XXGx54</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>17209</t>
+          <t>16583</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>7500435228749</t>
+          <t>7500435228725</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>4702</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER Gx44</t>
+          <t>BABYSEC TOALLAS PREMIUMx50</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>17214</t>
+          <t>16594</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7500435228732</t>
+          <t>7806500730514</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>4702</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER XGx36</t>
+          <t>PAMPERS BabyDRY RN x36</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>17219</t>
+          <t>16683</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7500435228763</t>
+          <t>7500435230513</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>4702</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER XXGx34</t>
+          <t>HUGGIES TOALLAS PROTECCION PLUSx48</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>17221</t>
+          <t>16702</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>750043522877</t>
+          <t>7794626013225</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>4702</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Mx72</t>
+          <t>PAMPERS BabyDry HIPER Gx44</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>17236</t>
+          <t>17214</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>750043522851</t>
+          <t>7500435228732</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>4714</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>PAMPERS BabyDry HIPER XGx36</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>17239</t>
+          <t>17219</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>7500435228763</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>8015</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+          <t>PAMPERS BABYSAN MES Mx72</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>17244</t>
+          <t>17236</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>7500435222433</t>
+          <t>750043522851</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>8015</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>SELEC.EST.HIPER XGx36</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>17325</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2178</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>SELEC.EST.SUPER Gx60</t>
+          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>17329</t>
+          <t>17244</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8281</t>
+          <t>7500435222433</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>3561</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
+          <t>SELEC.EST.HIPER XGx36</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>17325</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>SELEC.EST.SUPER Gx60</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>17329</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>8281</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
           <t>SELEC.EST.HIPER JUNIORx30</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>1733</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>8138</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>2178</v>
+      <c r="D42" s="2" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>CANDY TOALLAS HUMEDAS OLEO x50</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>7798269140218</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>CANDY TOALLAS HUMEDAS PREMIUM ALOEx50</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>17442</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>7798269140188</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>CANDY OLEO CALCAREO x500</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>17444</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>7798269140041</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES ULTRACONFORT AHORRO Mx68</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>17536</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>7794626013652</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES ULTRACONFORT AHORRO XXGx50</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>7794626013683</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS SUPER HIPER Mx52</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>17543</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>7500435219723</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS SUPER HIPER XXGx34</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>17544</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>7500435205351</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS SUPER HIPER Gx44</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>17545</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>750043520532</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BABYSAN REG. Px12</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>7500435228633</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BABYSAN REG. Gx9</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>17551</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>7500435228619</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BABYSAN REG. Mx10</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>17558</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>7500435228626</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BABYSAN REG. XGx8</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>17559</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>750043522864</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS BABYSAN REG. XXGx8</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>1756</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>7500435228657</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS PANTS PC MES XXGx52</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>18036</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>7500435189668</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS PANTS PC XXGx24</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>18059</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>7500435178327</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>VERITAS FECULA BEBEx180</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>18084</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>7791520009774</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
